--- a/output_from_HEMAcMPC /data_tables_from_HEMAcMPC /stats_analysis_output_mean_HEMAcMPC .xlsx
+++ b/output_from_HEMAcMPC /data_tables_from_HEMAcMPC /stats_analysis_output_mean_HEMAcMPC .xlsx
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <v>-0.001624893054726</v>
+        <v>-0.00269614570466913</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>-0.001769224457897873</v>
+        <v>-0.002652972971575565</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="I6">
-        <v>0.002205231637753626</v>
+        <v>0.002011092929877704</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -632,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="I7">
-        <v>0.0009298559575395703</v>
+        <v>0.0004495562792144203</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -674,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="I8">
-        <v>0.002082669463485779</v>
+        <v>0.001740594424822042</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.001453717780536018</v>
+        <v>0.0009823470971297538</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -756,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.002977656270379201</v>
+        <v>0.002653381809506367</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="I11">
-        <v>0.001794711415186459</v>
+        <v>0.001308029840633913</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="I12">
-        <v>0.002838459608292307</v>
+        <v>0.002496536277787077</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -878,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="I13">
-        <v>0.00203035417179554</v>
+        <v>0.001430113045942957</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="I14">
-        <v>0.002119421142296326</v>
+        <v>0.001757567214942119</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="I15">
-        <v>0.002192384244341678</v>
+        <v>0.001600785045078349</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="I16">
-        <v>0.002905146461737698</v>
+        <v>0.002314274551561185</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="I17">
-        <v>0.0018422538960638</v>
+        <v>0.001062688074586845</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
